--- a/Comp/merged_file.xlsx
+++ b/Comp/merged_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/vj923_ic_ac_uk/Documents/Imperial/Y2/Steel Challenge/Challenge-2024-2025/Comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_5799B3F743668A0E62355476585DCE3A87443810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05FE459-02A9-450A-868F-FF92F529F5D3}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_5799B3F743668A0E62355476585DCE3A87443810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D736D9-A4C0-4166-858B-9D0497DB5776}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>formula</t>
   </si>
@@ -1001,6 +1001,15 @@
   </si>
   <si>
     <t>Fe0.860C0.0125Mn0.00274Si0.000198Cr0.00439Ni0.0786Mo0.00284V0.000765Nb0.0000600Co0.0369Al0.000619</t>
+  </si>
+  <si>
+    <t>yield strength</t>
+  </si>
+  <si>
+    <t>tensile strength</t>
+  </si>
+  <si>
+    <t>elongation</t>
   </si>
 </sst>
 </file>
@@ -1363,15 +1372,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O313"/>
+  <dimension ref="A1:R313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="M264" sqref="M264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1431,17 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1464,8 +1487,17 @@
       <c r="O2">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>2411.5</v>
+      </c>
+      <c r="Q2">
+        <v>2473.5</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1511,8 +1543,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1123.0999999999999</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1558,8 +1596,14 @@
       <c r="O4">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1736.3</v>
+      </c>
+      <c r="Q4">
+        <v>1871.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1605,8 +1649,17 @@
       <c r="O5">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2487.3000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>2514.9</v>
+      </c>
+      <c r="R5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1652,8 +1705,17 @@
       <c r="O6">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2249.6</v>
+      </c>
+      <c r="Q6">
+        <v>2315</v>
+      </c>
+      <c r="R6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1699,8 +1761,17 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1328.3</v>
+      </c>
+      <c r="Q7">
+        <v>1779.5</v>
+      </c>
+      <c r="R7">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1746,8 +1817,17 @@
       <c r="O8">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>2501.1</v>
+      </c>
+      <c r="Q8">
+        <v>2570</v>
+      </c>
+      <c r="R8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1793,8 +1873,17 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>1228.9000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>1795.6</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1840,8 +1929,17 @@
       <c r="O10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>1088.5999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>1419.3</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1887,8 +1985,17 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1502</v>
+      </c>
+      <c r="Q11">
+        <v>2008.4</v>
+      </c>
+      <c r="R11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1934,8 +2041,17 @@
       <c r="O12">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2411.5</v>
+      </c>
+      <c r="Q12">
+        <v>2475.8000000000002</v>
+      </c>
+      <c r="R12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2097,17 @@
       <c r="O13">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>2331.1</v>
+      </c>
+      <c r="Q13">
+        <v>2397.6999999999998</v>
+      </c>
+      <c r="R13">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2028,8 +2153,17 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>1274.7</v>
+      </c>
+      <c r="Q14">
+        <v>1949.9</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2075,8 +2209,17 @@
       <c r="O15">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>2402.3000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>2468.9</v>
+      </c>
+      <c r="R15">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2122,8 +2265,17 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>1460.7</v>
+      </c>
+      <c r="Q16">
+        <v>2197.9</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2169,8 +2321,17 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>1243.4000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>1792.3</v>
+      </c>
+      <c r="R17">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2216,8 +2377,14 @@
       <c r="O18">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>2436.8000000000002</v>
+      </c>
+      <c r="R18">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2263,8 +2430,17 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>1412.5</v>
+      </c>
+      <c r="Q19">
+        <v>2129</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2310,8 +2486,17 @@
       <c r="O20">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>1603.3</v>
+      </c>
+      <c r="Q20">
+        <v>1751.6</v>
+      </c>
+      <c r="R20">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2357,8 +2542,17 @@
       <c r="O21">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>1185.0999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>1453.8</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2404,8 +2598,17 @@
       <c r="O22">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>2510.3000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>2570</v>
+      </c>
+      <c r="R22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2451,8 +2654,17 @@
       <c r="O23">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2372.4</v>
+      </c>
+      <c r="Q23">
+        <v>2441.3000000000002</v>
+      </c>
+      <c r="R23">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2498,8 +2710,17 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>1312.6</v>
+      </c>
+      <c r="Q24">
+        <v>2011.9</v>
+      </c>
+      <c r="R24">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2545,8 +2766,17 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1350.4</v>
+      </c>
+      <c r="Q25">
+        <v>2039.4</v>
+      </c>
+      <c r="R25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2592,8 +2822,17 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>1169.4000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>1603.4</v>
+      </c>
+      <c r="R26">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2639,8 +2878,17 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>1322.1</v>
+      </c>
+      <c r="Q27">
+        <v>1770.7</v>
+      </c>
+      <c r="R27">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2686,8 +2934,17 @@
       <c r="O28">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>1870.6</v>
+      </c>
+      <c r="Q28">
+        <v>1970.6</v>
+      </c>
+      <c r="R28">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2733,8 +2990,17 @@
       <c r="O29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>1580</v>
+      </c>
+      <c r="Q29">
+        <v>1675.6</v>
+      </c>
+      <c r="R29">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2780,8 +3046,17 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>2032.6</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2827,8 +3102,17 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>1550.3</v>
+      </c>
+      <c r="Q31">
+        <v>2122.1</v>
+      </c>
+      <c r="R31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2874,8 +3158,17 @@
       <c r="O32">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>2381.6</v>
+      </c>
+      <c r="Q32">
+        <v>2436.8000000000002</v>
+      </c>
+      <c r="R32">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2921,8 +3214,17 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1405.6</v>
+      </c>
+      <c r="Q33">
+        <v>2122.1</v>
+      </c>
+      <c r="R33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2968,8 +3270,17 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1529.6</v>
+      </c>
+      <c r="Q34">
+        <v>2108.3000000000002</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3015,8 +3326,14 @@
       <c r="O35">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>1953.3</v>
+      </c>
+      <c r="R35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3062,8 +3379,17 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1352.2</v>
+      </c>
+      <c r="Q36">
+        <v>1839.4</v>
+      </c>
+      <c r="R36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3109,8 +3435,17 @@
       <c r="O37">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>1837.9</v>
+      </c>
+      <c r="Q37">
+        <v>1949.8</v>
+      </c>
+      <c r="R37">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3156,8 +3491,17 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>1133.4000000000001</v>
+      </c>
+      <c r="Q38">
+        <v>1931.2</v>
+      </c>
+      <c r="R38">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3203,8 +3547,17 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>1358.2</v>
+      </c>
+      <c r="Q39">
+        <v>1841.4</v>
+      </c>
+      <c r="R39">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3250,8 +3603,17 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>1354.2</v>
+      </c>
+      <c r="Q40">
+        <v>1769.8</v>
+      </c>
+      <c r="R40">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3297,8 +3659,17 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>1081.0999999999999</v>
+      </c>
+      <c r="Q41">
+        <v>1678.6</v>
+      </c>
+      <c r="R41">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3344,8 +3715,17 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1515.8</v>
+      </c>
+      <c r="Q42">
+        <v>2101.5</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3391,8 +3771,17 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>1502</v>
+      </c>
+      <c r="Q43">
+        <v>2094.6</v>
+      </c>
+      <c r="R43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3438,8 +3827,17 @@
       <c r="O44">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>2157.3000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>2239.3000000000002</v>
+      </c>
+      <c r="R44">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3485,8 +3883,17 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="Q45">
+        <v>1891.1</v>
+      </c>
+      <c r="R45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3532,8 +3939,17 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>1311.4</v>
+      </c>
+      <c r="Q46">
+        <v>2016.5</v>
+      </c>
+      <c r="R46">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3579,8 +3995,17 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>1245.4000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>1754.6</v>
+      </c>
+      <c r="R47">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3626,8 +4051,17 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>1155</v>
+      </c>
+      <c r="Q48">
+        <v>1848</v>
+      </c>
+      <c r="R48">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3673,8 +4107,17 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>1322.9</v>
+      </c>
+      <c r="Q49">
+        <v>1984.3</v>
+      </c>
+      <c r="R49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3720,8 +4163,17 @@
       <c r="O50">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1571.2</v>
+      </c>
+      <c r="Q50">
+        <v>1701.7</v>
+      </c>
+      <c r="R50">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3767,8 +4219,17 @@
       <c r="O51">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="Q51">
+        <v>1453.8</v>
+      </c>
+      <c r="R51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3814,8 +4275,17 @@
       <c r="O52">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1143.7</v>
+      </c>
+      <c r="Q52">
+        <v>1350.4</v>
+      </c>
+      <c r="R52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3861,8 +4331,17 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>1460.7</v>
+      </c>
+      <c r="Q53">
+        <v>2067</v>
+      </c>
+      <c r="R53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3908,8 +4387,17 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>1300.3</v>
+      </c>
+      <c r="Q54">
+        <v>1741.5</v>
+      </c>
+      <c r="R54">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3955,8 +4443,17 @@
       <c r="O55">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>1309.0999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>1757</v>
+      </c>
+      <c r="R55">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4002,8 +4499,17 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>1338</v>
+      </c>
+      <c r="Q56">
+        <v>1792.7</v>
+      </c>
+      <c r="R56">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4049,8 +4555,17 @@
       <c r="O57">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1309.0999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>1495.1</v>
+      </c>
+      <c r="R57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4096,8 +4611,17 @@
       <c r="O58">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>1669.3</v>
+      </c>
+      <c r="Q58">
+        <v>1726.8</v>
+      </c>
+      <c r="R58">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4143,8 +4667,17 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>1382.2</v>
+      </c>
+      <c r="Q59">
+        <v>1764.8</v>
+      </c>
+      <c r="R59">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4190,8 +4723,14 @@
       <c r="O60">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1768</v>
+      </c>
+      <c r="Q60">
+        <v>1828.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4237,8 +4776,17 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>1131.9000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>1595.4</v>
+      </c>
+      <c r="R61">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4284,8 +4832,17 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>1341.7</v>
+      </c>
+      <c r="Q62">
+        <v>1745.5</v>
+      </c>
+      <c r="R62">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4331,8 +4888,14 @@
       <c r="O63">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>1586.7</v>
+      </c>
+      <c r="Q63">
+        <v>1671.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4378,8 +4941,17 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>1373.9</v>
+      </c>
+      <c r="Q64">
+        <v>1640.2</v>
+      </c>
+      <c r="R64">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4425,8 +4997,17 @@
       <c r="O65">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>1371.1</v>
+      </c>
+      <c r="R65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4472,8 +5053,17 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>1240.2</v>
+      </c>
+      <c r="Q66">
+        <v>1598.5</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4519,8 +5109,17 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>1250.8</v>
+      </c>
+      <c r="Q67">
+        <v>1737.4</v>
+      </c>
+      <c r="R67">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4566,8 +5165,17 @@
       <c r="O68">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>1453.8</v>
+      </c>
+      <c r="Q68">
+        <v>1701.8</v>
+      </c>
+      <c r="R68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4613,8 +5221,17 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>1241</v>
+      </c>
+      <c r="Q69">
+        <v>1719.7</v>
+      </c>
+      <c r="R69">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4660,8 +5277,17 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>1314.2</v>
+      </c>
+      <c r="Q70">
+        <v>1775.6</v>
+      </c>
+      <c r="R70">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4707,8 +5333,17 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>1471</v>
+      </c>
+      <c r="Q71">
+        <v>1939.6</v>
+      </c>
+      <c r="R71">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4754,8 +5389,17 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>1646.7</v>
+      </c>
+      <c r="Q72">
+        <v>2149.6999999999998</v>
+      </c>
+      <c r="R72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4801,8 +5445,17 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>1258.5999999999999</v>
+      </c>
+      <c r="Q73">
+        <v>1738.3</v>
+      </c>
+      <c r="R73">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4848,8 +5501,17 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>1233.3</v>
+      </c>
+      <c r="Q74">
+        <v>1612.3</v>
+      </c>
+      <c r="R74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4895,8 +5557,17 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>1536.5</v>
+      </c>
+      <c r="Q75">
+        <v>2135.9</v>
+      </c>
+      <c r="R75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4942,8 +5613,17 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>1344.4</v>
+      </c>
+      <c r="Q76">
+        <v>1736.9</v>
+      </c>
+      <c r="R76">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4989,8 +5669,17 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>1218.4000000000001</v>
+      </c>
+      <c r="Q77">
+        <v>1738.3</v>
+      </c>
+      <c r="R77">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -5036,8 +5725,17 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>1383.7</v>
+      </c>
+      <c r="Q78">
+        <v>1773.6</v>
+      </c>
+      <c r="R78">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -5083,8 +5781,17 @@
       <c r="O79">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>1550.3</v>
+      </c>
+      <c r="Q79">
+        <v>1940.7</v>
+      </c>
+      <c r="R79">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -5130,8 +5837,17 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>1438.6</v>
+      </c>
+      <c r="Q80">
+        <v>1826.1</v>
+      </c>
+      <c r="R80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -5177,8 +5893,14 @@
       <c r="O81">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>1755.2</v>
+      </c>
+      <c r="Q81">
+        <v>1820.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5224,8 +5946,17 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>1680.6</v>
+      </c>
+      <c r="Q82">
+        <v>1768.7</v>
+      </c>
+      <c r="R82">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -5271,8 +6002,17 @@
       <c r="O83">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>1267.0999999999999</v>
+      </c>
+      <c r="Q83">
+        <v>1331.5</v>
+      </c>
+      <c r="R83">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -5318,8 +6058,17 @@
       <c r="O84">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="Q84">
+        <v>1329.8</v>
+      </c>
+      <c r="R84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -5365,8 +6114,14 @@
       <c r="O85">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>1779.7</v>
+      </c>
+      <c r="Q85">
+        <v>1856.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -5412,8 +6167,17 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>1372.9</v>
+      </c>
+      <c r="Q86">
+        <v>1800.2</v>
+      </c>
+      <c r="R86">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5459,8 +6223,14 @@
       <c r="O87">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>1731.7</v>
+      </c>
+      <c r="Q87">
+        <v>2232.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -5506,8 +6276,14 @@
       <c r="O88">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>1729.4</v>
+      </c>
+      <c r="Q88">
+        <v>1817.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5553,8 +6329,17 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>1311.1</v>
+      </c>
+      <c r="Q89">
+        <v>1789.4</v>
+      </c>
+      <c r="R89">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -5600,8 +6385,17 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>1486.2</v>
+      </c>
+      <c r="Q90">
+        <v>1700.3</v>
+      </c>
+      <c r="R90">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5647,8 +6441,17 @@
       <c r="O91">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>1012.8</v>
+      </c>
+      <c r="Q91">
+        <v>1198.9000000000001</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5694,8 +6497,17 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>1278.2</v>
+      </c>
+      <c r="Q92">
+        <v>1610.8</v>
+      </c>
+      <c r="R92">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5741,8 +6553,17 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>1368.5</v>
+      </c>
+      <c r="Q93">
+        <v>1727.5</v>
+      </c>
+      <c r="R93">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5788,8 +6609,17 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>1280.7</v>
+      </c>
+      <c r="Q94">
+        <v>1772.2</v>
+      </c>
+      <c r="R94">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5835,8 +6665,17 @@
       <c r="O95">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>1605.4</v>
+      </c>
+      <c r="Q95">
+        <v>1639.8</v>
+      </c>
+      <c r="R95">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5882,8 +6721,14 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>1369.5</v>
+      </c>
+      <c r="Q96">
+        <v>1759.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5929,8 +6774,17 @@
       <c r="O97">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>1205.8</v>
+      </c>
+      <c r="Q97">
+        <v>1281.5</v>
+      </c>
+      <c r="R97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5976,8 +6830,17 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>1275.3</v>
+      </c>
+      <c r="Q98">
+        <v>1741.8</v>
+      </c>
+      <c r="R98">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6023,8 +6886,17 @@
       <c r="O99">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>1575.5</v>
+      </c>
+      <c r="Q99">
+        <v>1998.1</v>
+      </c>
+      <c r="R99">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -6070,8 +6942,17 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>1369.5</v>
+      </c>
+      <c r="Q100">
+        <v>1767.4</v>
+      </c>
+      <c r="R100">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -6117,8 +6998,17 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>1359.7</v>
+      </c>
+      <c r="Q101">
+        <v>1809.9</v>
+      </c>
+      <c r="R101">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -6164,8 +7054,17 @@
       <c r="O102">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>1233.3</v>
+      </c>
+      <c r="Q102">
+        <v>1378</v>
+      </c>
+      <c r="R102">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -6211,8 +7110,17 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>1376.3</v>
+      </c>
+      <c r="Q103">
+        <v>1732.4</v>
+      </c>
+      <c r="R103">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -6258,8 +7166,17 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>1376.7</v>
+      </c>
+      <c r="Q104">
+        <v>1809.3</v>
+      </c>
+      <c r="R104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -6305,8 +7222,17 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>1348.9</v>
+      </c>
+      <c r="Q105">
+        <v>1727.5</v>
+      </c>
+      <c r="R105">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -6352,8 +7278,17 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>1332.7</v>
+      </c>
+      <c r="Q106">
+        <v>1774.1</v>
+      </c>
+      <c r="R106">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -6399,8 +7334,17 @@
       <c r="O107">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>1287.3</v>
+      </c>
+      <c r="Q107">
+        <v>1429.7</v>
+      </c>
+      <c r="R107">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -6446,8 +7390,17 @@
       <c r="O108">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>1212</v>
+      </c>
+      <c r="Q108">
+        <v>1272.2</v>
+      </c>
+      <c r="R108">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6493,8 +7446,14 @@
       <c r="O109">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>2356.4</v>
+      </c>
+      <c r="Q109">
+        <v>2404.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -6540,8 +7499,17 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>1299.8</v>
+      </c>
+      <c r="Q110">
+        <v>1770.2</v>
+      </c>
+      <c r="R110">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6587,8 +7555,17 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>1405.6</v>
+      </c>
+      <c r="Q111">
+        <v>1894.8</v>
+      </c>
+      <c r="R111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6634,8 +7611,17 @@
       <c r="O112">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>1144.8</v>
+      </c>
+      <c r="Q112">
+        <v>1176.2</v>
+      </c>
+      <c r="R112">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6681,8 +7667,17 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>1423.8</v>
+      </c>
+      <c r="Q113">
+        <v>1818.8</v>
+      </c>
+      <c r="R113">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -6728,8 +7723,14 @@
       <c r="O114">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>1350.4</v>
+      </c>
+      <c r="Q114">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -6775,8 +7776,14 @@
       <c r="O115">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>1274.7</v>
+      </c>
+      <c r="Q115">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -6822,8 +7829,17 @@
       <c r="O116">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>1130</v>
+      </c>
+      <c r="Q116">
+        <v>1212.5999999999999</v>
+      </c>
+      <c r="R116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -6869,8 +7885,17 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>1237</v>
+      </c>
+      <c r="Q117">
+        <v>1374.2</v>
+      </c>
+      <c r="R117">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -6916,8 +7941,17 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>1371.4</v>
+      </c>
+      <c r="Q118">
+        <v>1730.5</v>
+      </c>
+      <c r="R118">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6963,8 +7997,17 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>1273.3</v>
+      </c>
+      <c r="Q119">
+        <v>1640.2</v>
+      </c>
+      <c r="R119">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -7010,8 +8053,17 @@
       <c r="O120">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>1393.5</v>
+      </c>
+      <c r="Q120">
+        <v>1521.4</v>
+      </c>
+      <c r="R120">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -7057,8 +8109,17 @@
       <c r="O121">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>1580.1</v>
+      </c>
+      <c r="Q121">
+        <v>1719.1</v>
+      </c>
+      <c r="R121">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -7104,8 +8165,17 @@
       <c r="O122">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>1109.3</v>
+      </c>
+      <c r="Q122">
+        <v>1178.2</v>
+      </c>
+      <c r="R122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -7151,8 +8221,17 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>1302.8</v>
+      </c>
+      <c r="Q123">
+        <v>1721.7</v>
+      </c>
+      <c r="R123">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -7198,8 +8277,17 @@
       <c r="O124">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>1405.6</v>
+      </c>
+      <c r="Q124">
+        <v>1798.3</v>
+      </c>
+      <c r="R124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -7245,8 +8333,17 @@
       <c r="O125">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>1088.5999999999999</v>
+      </c>
+      <c r="Q125">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="R125">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -7292,8 +8389,17 @@
       <c r="O126">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="Q126">
+        <v>1178.2</v>
+      </c>
+      <c r="R126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -7339,8 +8445,17 @@
       <c r="O127">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>1429.7</v>
+      </c>
+      <c r="Q127">
+        <v>1925.8</v>
+      </c>
+      <c r="R127">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -7386,8 +8501,17 @@
       <c r="O128">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>1810</v>
+      </c>
+      <c r="Q128">
+        <v>1970</v>
+      </c>
+      <c r="R128">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -7433,8 +8557,17 @@
       <c r="O129">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>1123.0999999999999</v>
+      </c>
+      <c r="Q129">
+        <v>1198.9000000000001</v>
+      </c>
+      <c r="R129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -7480,8 +8613,17 @@
       <c r="O130">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>1412.5</v>
+      </c>
+      <c r="Q130">
+        <v>1688.1</v>
+      </c>
+      <c r="R130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -7527,8 +8669,17 @@
       <c r="O131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>1282.2</v>
+      </c>
+      <c r="Q131">
+        <v>1668.7</v>
+      </c>
+      <c r="R131">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -7574,8 +8725,17 @@
       <c r="O132">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>1777.6</v>
+      </c>
+      <c r="Q132">
+        <v>1954.6</v>
+      </c>
+      <c r="R132">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -7621,8 +8781,17 @@
       <c r="O133">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="Q133">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="R133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -7668,8 +8837,17 @@
       <c r="O134">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>1109.3</v>
+      </c>
+      <c r="Q134">
+        <v>1281.5</v>
+      </c>
+      <c r="R134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -7715,8 +8893,17 @@
       <c r="O135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>1258.2</v>
+      </c>
+      <c r="Q135">
+        <v>1650.9</v>
+      </c>
+      <c r="R135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -7762,8 +8949,17 @@
       <c r="O136">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>1743.5</v>
+      </c>
+      <c r="Q136">
+        <v>1925.4</v>
+      </c>
+      <c r="R136">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -7809,8 +9005,17 @@
       <c r="O137">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>1792.1</v>
+      </c>
+      <c r="Q137">
+        <v>1991.2</v>
+      </c>
+      <c r="R137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -7856,8 +9061,17 @@
       <c r="O138">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>1741.8</v>
+      </c>
+      <c r="Q138">
+        <v>1933.4</v>
+      </c>
+      <c r="R138">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -7903,8 +9117,17 @@
       <c r="O139">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>1746.6</v>
+      </c>
+      <c r="Q139">
+        <v>1945.8</v>
+      </c>
+      <c r="R139">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -7950,8 +9173,17 @@
       <c r="O140">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>1804.2</v>
+      </c>
+      <c r="Q140">
+        <v>2010.8</v>
+      </c>
+      <c r="R140">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -7997,8 +9229,17 @@
       <c r="O141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>1478.4</v>
+      </c>
+      <c r="Q141">
+        <v>1617</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -8044,8 +9285,17 @@
       <c r="O142">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>1795.5</v>
+      </c>
+      <c r="Q142">
+        <v>1991.9</v>
+      </c>
+      <c r="R142">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -8091,8 +9341,17 @@
       <c r="O143">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>1818</v>
+      </c>
+      <c r="Q143">
+        <v>2022.2</v>
+      </c>
+      <c r="R143">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -8138,8 +9397,14 @@
       <c r="O144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="R144">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -8185,8 +9450,17 @@
       <c r="O145">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>1005.9</v>
+      </c>
+      <c r="Q145">
+        <v>1109.3</v>
+      </c>
+      <c r="R145">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -8232,8 +9506,17 @@
       <c r="O146">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>1525</v>
+      </c>
+      <c r="Q146">
+        <v>1635</v>
+      </c>
+      <c r="R146">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -8279,8 +9562,17 @@
       <c r="O147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>1362.9</v>
+      </c>
+      <c r="Q147">
+        <v>1447.6</v>
+      </c>
+      <c r="R147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -8326,8 +9618,17 @@
       <c r="O148">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>1071.4000000000001</v>
+      </c>
+      <c r="Q148">
+        <v>1229.8</v>
+      </c>
+      <c r="R148">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -8373,8 +9674,17 @@
       <c r="O149">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>1136.8</v>
+      </c>
+      <c r="Q149">
+        <v>1205.8</v>
+      </c>
+      <c r="R149">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -8420,8 +9730,17 @@
       <c r="O150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="Q150">
+        <v>1381.9</v>
+      </c>
+      <c r="R150">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -8467,8 +9786,17 @@
       <c r="O151">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>1040.4000000000001</v>
+      </c>
+      <c r="Q151">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="R151">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -8514,8 +9842,17 @@
       <c r="O152">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="Q152">
+        <v>1178.2</v>
+      </c>
+      <c r="R152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -8561,8 +9898,17 @@
       <c r="O153">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="Q153">
+        <v>1260.9000000000001</v>
+      </c>
+      <c r="R153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -8608,8 +9954,17 @@
       <c r="O154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>1219.7</v>
+      </c>
+      <c r="Q154">
+        <v>1674</v>
+      </c>
+      <c r="R154">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -8655,8 +10010,17 @@
       <c r="O155">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>1019.7</v>
+      </c>
+      <c r="Q155">
+        <v>1157.5</v>
+      </c>
+      <c r="R155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -8702,8 +10066,17 @@
       <c r="O156">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>1391.8</v>
+      </c>
+      <c r="Q156">
+        <v>1839.6</v>
+      </c>
+      <c r="R156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -8749,8 +10122,17 @@
       <c r="O157">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="Q157">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="R157">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -8796,8 +10178,17 @@
       <c r="O158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>1547.3</v>
+      </c>
+      <c r="Q158">
+        <v>1663.9</v>
+      </c>
+      <c r="R158">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -8843,8 +10234,17 @@
       <c r="O159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>1463</v>
+      </c>
+      <c r="Q159">
+        <v>1555.4</v>
+      </c>
+      <c r="R159">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -8890,8 +10290,17 @@
       <c r="O160">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>1536.5</v>
+      </c>
+      <c r="Q160">
+        <v>1536.5</v>
+      </c>
+      <c r="R160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -8937,8 +10346,17 @@
       <c r="O161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>1250.5</v>
+      </c>
+      <c r="Q161">
+        <v>1949.9</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -8984,8 +10402,17 @@
       <c r="O162">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>1123.0999999999999</v>
+      </c>
+      <c r="Q162">
+        <v>1247.0999999999999</v>
+      </c>
+      <c r="R162">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -9031,8 +10458,17 @@
       <c r="O163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>1016.4</v>
+      </c>
+      <c r="Q163">
+        <v>1324.4</v>
+      </c>
+      <c r="R163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -9078,8 +10514,17 @@
       <c r="O164">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>1371.1</v>
+      </c>
+      <c r="Q164">
+        <v>1812.1</v>
+      </c>
+      <c r="R164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -9125,8 +10570,17 @@
       <c r="O165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>1117.3</v>
+      </c>
+      <c r="Q165">
+        <v>1286.5999999999999</v>
+      </c>
+      <c r="R165">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -9172,8 +10626,17 @@
       <c r="O166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>1232</v>
+      </c>
+      <c r="Q166">
+        <v>1566.2</v>
+      </c>
+      <c r="R166">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -9219,8 +10682,17 @@
       <c r="O167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>1592.9</v>
+      </c>
+      <c r="Q167">
+        <v>1729.6</v>
+      </c>
+      <c r="R167">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -9266,8 +10738,17 @@
       <c r="O168">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>1629.9</v>
+      </c>
+      <c r="Q168">
+        <v>1760.8</v>
+      </c>
+      <c r="R168">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -9313,8 +10794,17 @@
       <c r="O169">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>1047.3</v>
+      </c>
+      <c r="Q169">
+        <v>1178.2</v>
+      </c>
+      <c r="R169">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -9360,8 +10850,17 @@
       <c r="O170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>1096.5</v>
+      </c>
+      <c r="Q170">
+        <v>1492.3</v>
+      </c>
+      <c r="R170">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -9407,8 +10906,17 @@
       <c r="O171">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>1615.8</v>
+      </c>
+      <c r="Q171">
+        <v>1960.2</v>
+      </c>
+      <c r="R171">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -9454,8 +10962,17 @@
       <c r="O172">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>1522.7</v>
+      </c>
+      <c r="Q172">
+        <v>2024</v>
+      </c>
+      <c r="R172">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -9501,8 +11018,17 @@
       <c r="O173">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="Q173">
+        <v>1198.9000000000001</v>
+      </c>
+      <c r="R173">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -9548,8 +11074,14 @@
       <c r="O174">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q174">
+        <v>1800.6</v>
+      </c>
+      <c r="R174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -9595,8 +11127,17 @@
       <c r="O175">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>1564</v>
+      </c>
+      <c r="Q175">
+        <v>1939.6</v>
+      </c>
+      <c r="R175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -9642,8 +11183,17 @@
       <c r="O176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="Q176">
+        <v>1350.6</v>
+      </c>
+      <c r="R176">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -9689,8 +11239,17 @@
       <c r="O177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>1455.4</v>
+      </c>
+      <c r="Q177">
+        <v>1567.7</v>
+      </c>
+      <c r="R177">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -9736,8 +11295,17 @@
       <c r="O178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>1028.7</v>
+      </c>
+      <c r="Q178">
+        <v>1315.2</v>
+      </c>
+      <c r="R178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -9783,8 +11351,17 @@
       <c r="O179">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>1521.3</v>
+      </c>
+      <c r="Q179">
+        <v>1572.3</v>
+      </c>
+      <c r="R179">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -9830,8 +11407,17 @@
       <c r="O180">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>1801.8</v>
+      </c>
+      <c r="Q180">
+        <v>1915.4</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -9877,8 +11463,17 @@
       <c r="O181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>1503.4</v>
+      </c>
+      <c r="Q181">
+        <v>1642.2</v>
+      </c>
+      <c r="R181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -9924,8 +11519,17 @@
       <c r="O182">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>1350.3</v>
+      </c>
+      <c r="Q182">
+        <v>1413.2</v>
+      </c>
+      <c r="R182">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -9971,8 +11575,17 @@
       <c r="O183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>1308</v>
+      </c>
+      <c r="Q183">
+        <v>1431.4</v>
+      </c>
+      <c r="R183">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -10018,8 +11631,17 @@
       <c r="O184">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>1357.9</v>
+      </c>
+      <c r="Q184">
+        <v>1408.6</v>
+      </c>
+      <c r="R184">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -10065,8 +11687,17 @@
       <c r="O185">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>1317</v>
+      </c>
+      <c r="Q185">
+        <v>1526.5</v>
+      </c>
+      <c r="R185">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -10112,8 +11743,17 @@
       <c r="O186">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>1269</v>
+      </c>
+      <c r="Q186">
+        <v>1325.2</v>
+      </c>
+      <c r="R186">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -10159,8 +11799,17 @@
       <c r="O187">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>1306.9000000000001</v>
+      </c>
+      <c r="Q187">
+        <v>1336.4</v>
+      </c>
+      <c r="R187">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -10206,8 +11855,17 @@
       <c r="O188">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>1285</v>
+      </c>
+      <c r="Q188">
+        <v>1311.3</v>
+      </c>
+      <c r="R188">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -10253,8 +11911,17 @@
       <c r="O189">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>1297.5</v>
+      </c>
+      <c r="Q189">
+        <v>1343.3</v>
+      </c>
+      <c r="R189">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -10300,8 +11967,17 @@
       <c r="O190">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>1344</v>
+      </c>
+      <c r="Q190">
+        <v>1511</v>
+      </c>
+      <c r="R190">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -10347,8 +12023,17 @@
       <c r="O191">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>1348.6</v>
+      </c>
+      <c r="Q191">
+        <v>1440.6</v>
+      </c>
+      <c r="R191">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -10394,8 +12079,17 @@
       <c r="O192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>1463.3</v>
+      </c>
+      <c r="Q192">
+        <v>1574.7</v>
+      </c>
+      <c r="R192">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -10441,8 +12135,17 @@
       <c r="O193">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>1276.7</v>
+      </c>
+      <c r="Q193">
+        <v>1334</v>
+      </c>
+      <c r="R193">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -10488,8 +12191,17 @@
       <c r="O194">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>1296</v>
+      </c>
+      <c r="Q194">
+        <v>1355.3</v>
+      </c>
+      <c r="R194">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -10535,8 +12247,17 @@
       <c r="O195">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>1277.7</v>
+      </c>
+      <c r="Q195">
+        <v>1308.8</v>
+      </c>
+      <c r="R195">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -10582,8 +12303,17 @@
       <c r="O196">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>1391.2</v>
+      </c>
+      <c r="Q196">
+        <v>1426</v>
+      </c>
+      <c r="R196">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -10629,8 +12359,17 @@
       <c r="O197">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>1312</v>
+      </c>
+      <c r="Q197">
+        <v>1344.4</v>
+      </c>
+      <c r="R197">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>211</v>
       </c>
@@ -10676,8 +12415,17 @@
       <c r="O198">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>1276.5</v>
+      </c>
+      <c r="Q198">
+        <v>1463.8</v>
+      </c>
+      <c r="R198">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -10723,8 +12471,17 @@
       <c r="O199">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>1357.3</v>
+      </c>
+      <c r="Q199">
+        <v>1777.6</v>
+      </c>
+      <c r="R199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -10770,8 +12527,17 @@
       <c r="O200">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>1294.9000000000001</v>
+      </c>
+      <c r="Q200">
+        <v>1352.1</v>
+      </c>
+      <c r="R200">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -10817,8 +12583,17 @@
       <c r="O201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>1155</v>
+      </c>
+      <c r="Q201">
+        <v>1409.1</v>
+      </c>
+      <c r="R201">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -10864,8 +12639,17 @@
       <c r="O202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>1153.4000000000001</v>
+      </c>
+      <c r="Q202">
+        <v>1359.8</v>
+      </c>
+      <c r="R202">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -10911,8 +12695,17 @@
       <c r="O203">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>1280.2</v>
+      </c>
+      <c r="Q203">
+        <v>1343.8</v>
+      </c>
+      <c r="R203">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>217</v>
       </c>
@@ -10958,8 +12751,17 @@
       <c r="O204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>1074.9000000000001</v>
+      </c>
+      <c r="Q204">
+        <v>1342.9</v>
+      </c>
+      <c r="R204">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>218</v>
       </c>
@@ -11005,8 +12807,17 @@
       <c r="O205">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>1157.5</v>
+      </c>
+      <c r="Q205">
+        <v>1187.8</v>
+      </c>
+      <c r="R205">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>219</v>
       </c>
@@ -11052,8 +12863,17 @@
       <c r="O206">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>1280.8</v>
+      </c>
+      <c r="Q206">
+        <v>1340.1</v>
+      </c>
+      <c r="R206">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>220</v>
       </c>
@@ -11099,8 +12919,17 @@
       <c r="O207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>1667.4</v>
+      </c>
+      <c r="Q207">
+        <v>2122.1</v>
+      </c>
+      <c r="R207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>221</v>
       </c>
@@ -11146,8 +12975,17 @@
       <c r="O208">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>1199</v>
+      </c>
+      <c r="Q208">
+        <v>1266.5</v>
+      </c>
+      <c r="R208">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -11193,8 +13031,17 @@
       <c r="O209">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>1305.4000000000001</v>
+      </c>
+      <c r="Q209">
+        <v>1361.8</v>
+      </c>
+      <c r="R209">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -11240,8 +13087,17 @@
       <c r="O210">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>1661.2</v>
+      </c>
+      <c r="Q210">
+        <v>1888.4</v>
+      </c>
+      <c r="R210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>224</v>
       </c>
@@ -11287,8 +13143,17 @@
       <c r="O211">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>1474.4</v>
+      </c>
+      <c r="Q211">
+        <v>1529.6</v>
+      </c>
+      <c r="R211">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>225</v>
       </c>
@@ -11334,8 +13199,17 @@
       <c r="O212">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>1091.4000000000001</v>
+      </c>
+      <c r="Q212">
+        <v>1140.3</v>
+      </c>
+      <c r="R212">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -11381,8 +13255,17 @@
       <c r="O213">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>1145.8</v>
+      </c>
+      <c r="Q213">
+        <v>1196.0999999999999</v>
+      </c>
+      <c r="R213">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -11428,8 +13311,17 @@
       <c r="O214">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>1194</v>
+      </c>
+      <c r="Q214">
+        <v>1235.4000000000001</v>
+      </c>
+      <c r="R214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>228</v>
       </c>
@@ -11475,8 +13367,17 @@
       <c r="O215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>1235.9000000000001</v>
+      </c>
+      <c r="Q215">
+        <v>1520</v>
+      </c>
+      <c r="R215">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>229</v>
       </c>
@@ -11522,8 +13423,17 @@
       <c r="O216">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>1221.5999999999999</v>
+      </c>
+      <c r="Q216">
+        <v>1282.9000000000001</v>
+      </c>
+      <c r="R216">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -11569,8 +13479,17 @@
       <c r="O217">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>1506.8</v>
+      </c>
+      <c r="Q217">
+        <v>1546.8</v>
+      </c>
+      <c r="R217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>231</v>
       </c>
@@ -11616,8 +13535,17 @@
       <c r="O218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>1419.4</v>
+      </c>
+      <c r="Q218">
+        <v>1481.4</v>
+      </c>
+      <c r="R218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>232</v>
       </c>
@@ -11663,8 +13591,14 @@
       <c r="O219">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>1224.7</v>
+      </c>
+      <c r="R219">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>233</v>
       </c>
@@ -11710,8 +13644,17 @@
       <c r="O220">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>1173.8</v>
+      </c>
+      <c r="Q220">
+        <v>1232</v>
+      </c>
+      <c r="R220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>234</v>
       </c>
@@ -11757,8 +13700,17 @@
       <c r="O221">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>1267.8</v>
+      </c>
+      <c r="Q221">
+        <v>1285</v>
+      </c>
+      <c r="R221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>235</v>
       </c>
@@ -11804,8 +13756,17 @@
       <c r="O222">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>1182</v>
+      </c>
+      <c r="Q222">
+        <v>1254.5</v>
+      </c>
+      <c r="R222">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -11851,8 +13812,17 @@
       <c r="O223">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>1172</v>
+      </c>
+      <c r="Q223">
+        <v>1213.3</v>
+      </c>
+      <c r="R223">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>237</v>
       </c>
@@ -11898,8 +13868,17 @@
       <c r="O224">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>1178.9000000000001</v>
+      </c>
+      <c r="Q224">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="R224">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>238</v>
       </c>
@@ -11945,8 +13924,17 @@
       <c r="O225">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>1163</v>
+      </c>
+      <c r="Q225">
+        <v>1219.5999999999999</v>
+      </c>
+      <c r="R225">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>239</v>
       </c>
@@ -11992,8 +13980,17 @@
       <c r="O226">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>1175.4000000000001</v>
+      </c>
+      <c r="Q226">
+        <v>1224.4000000000001</v>
+      </c>
+      <c r="R226">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -12039,8 +14036,17 @@
       <c r="O227">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>1340.8</v>
+      </c>
+      <c r="Q227">
+        <v>1353.2</v>
+      </c>
+      <c r="R227">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>241</v>
       </c>
@@ -12086,8 +14092,17 @@
       <c r="O228">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>1258.8</v>
+      </c>
+      <c r="Q228">
+        <v>1289.0999999999999</v>
+      </c>
+      <c r="R228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>242</v>
       </c>
@@ -12133,8 +14148,17 @@
       <c r="O229">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>1414.5</v>
+      </c>
+      <c r="Q229">
+        <v>1465.5</v>
+      </c>
+      <c r="R229">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>243</v>
       </c>
@@ -12180,8 +14204,17 @@
       <c r="O230">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>1167.2</v>
+      </c>
+      <c r="Q230">
+        <v>1207.8</v>
+      </c>
+      <c r="R230">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>244</v>
       </c>
@@ -12227,8 +14260,17 @@
       <c r="O231">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>1282.2</v>
+      </c>
+      <c r="Q231">
+        <v>1344.2</v>
+      </c>
+      <c r="R231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -12274,8 +14316,17 @@
       <c r="O232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>1998.6</v>
+      </c>
+      <c r="Q232">
+        <v>2088.4</v>
+      </c>
+      <c r="R232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>246</v>
       </c>
@@ -12321,8 +14372,17 @@
       <c r="O233">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>1188.5999999999999</v>
+      </c>
+      <c r="Q233">
+        <v>1236.4000000000001</v>
+      </c>
+      <c r="R233">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>247</v>
       </c>
@@ -12368,8 +14428,17 @@
       <c r="O234">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P234">
+        <v>1243</v>
+      </c>
+      <c r="Q234">
+        <v>1292.5999999999999</v>
+      </c>
+      <c r="R234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>248</v>
       </c>
@@ -12415,8 +14484,17 @@
       <c r="O235">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P235">
+        <v>1150.5999999999999</v>
+      </c>
+      <c r="Q235">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="R235">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>249</v>
       </c>
@@ -12462,8 +14540,17 @@
       <c r="O236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>1846.5</v>
+      </c>
+      <c r="Q236">
+        <v>2177.1999999999998</v>
+      </c>
+      <c r="R236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>250</v>
       </c>
@@ -12509,8 +14596,17 @@
       <c r="O237">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>1005.9</v>
+      </c>
+      <c r="Q237">
+        <v>1033.5</v>
+      </c>
+      <c r="R237">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>251</v>
       </c>
@@ -12556,8 +14652,17 @@
       <c r="O238">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>1218.8</v>
+      </c>
+      <c r="Q238">
+        <v>1260.2</v>
+      </c>
+      <c r="R238">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>252</v>
       </c>
@@ -12603,8 +14708,17 @@
       <c r="O239">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>1032.0999999999999</v>
+      </c>
+      <c r="Q239">
+        <v>1063.0999999999999</v>
+      </c>
+      <c r="R239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>253</v>
       </c>
@@ -12650,8 +14764,17 @@
       <c r="O240">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>1010.8</v>
+      </c>
+      <c r="Q240">
+        <v>1041.0999999999999</v>
+      </c>
+      <c r="R240">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>254</v>
       </c>
@@ -12697,8 +14820,17 @@
       <c r="O241">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>1194</v>
+      </c>
+      <c r="Q241">
+        <v>1259</v>
+      </c>
+      <c r="R241">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>255</v>
       </c>
@@ -12744,8 +14876,17 @@
       <c r="O242">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>1462.7</v>
+      </c>
+      <c r="Q242">
+        <v>1533</v>
+      </c>
+      <c r="R242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>256</v>
       </c>
@@ -12791,8 +14932,17 @@
       <c r="O243">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>1555.8</v>
+      </c>
+      <c r="Q243">
+        <v>1598.5</v>
+      </c>
+      <c r="R243">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>257</v>
       </c>
@@ -12838,8 +14988,14 @@
       <c r="O244">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>1207.8</v>
+      </c>
+      <c r="Q244">
+        <v>1223.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>258</v>
       </c>
@@ -12885,8 +15041,17 @@
       <c r="O245">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>1730.2</v>
+      </c>
+      <c r="Q245">
+        <v>1819.5</v>
+      </c>
+      <c r="R245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>259</v>
       </c>
@@ -12932,8 +15097,17 @@
       <c r="O246">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>1125</v>
+      </c>
+      <c r="Q246">
+        <v>1217.5</v>
+      </c>
+      <c r="R246">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>260</v>
       </c>
@@ -12979,8 +15153,17 @@
       <c r="O247">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>2006</v>
+      </c>
+      <c r="Q247">
+        <v>2130</v>
+      </c>
+      <c r="R247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>261</v>
       </c>
@@ -13026,8 +15209,17 @@
       <c r="O248">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>2005.5</v>
+      </c>
+      <c r="Q248">
+        <v>2129.5</v>
+      </c>
+      <c r="R248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>262</v>
       </c>
@@ -13073,8 +15265,17 @@
       <c r="O249">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>1309.0999999999999</v>
+      </c>
+      <c r="Q249">
+        <v>1374.6</v>
+      </c>
+      <c r="R249">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>263</v>
       </c>
@@ -13120,8 +15321,17 @@
       <c r="O250">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>1087</v>
+      </c>
+      <c r="Q250">
+        <v>1130.2</v>
+      </c>
+      <c r="R250">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -13167,8 +15377,17 @@
       <c r="O251">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>1475.8</v>
+      </c>
+      <c r="Q251">
+        <v>1529.6</v>
+      </c>
+      <c r="R251">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>265</v>
       </c>
@@ -13214,8 +15433,17 @@
       <c r="O252">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>1688.1</v>
+      </c>
+      <c r="Q252">
+        <v>1750.1</v>
+      </c>
+      <c r="R252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -13261,8 +15489,17 @@
       <c r="O253">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>1730.2</v>
+      </c>
+      <c r="Q253">
+        <v>1771.4</v>
+      </c>
+      <c r="R253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -13308,8 +15545,17 @@
       <c r="O254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>1577.8</v>
+      </c>
+      <c r="Q254">
+        <v>1943</v>
+      </c>
+      <c r="R254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>268</v>
       </c>
@@ -13355,8 +15601,17 @@
       <c r="O255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>1798.3</v>
+      </c>
+      <c r="Q255">
+        <v>2135.9</v>
+      </c>
+      <c r="R255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>269</v>
       </c>
@@ -13402,8 +15657,17 @@
       <c r="O256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>1298.8</v>
+      </c>
+      <c r="Q256">
+        <v>1343.6</v>
+      </c>
+      <c r="R256">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>270</v>
       </c>
@@ -13449,8 +15713,17 @@
       <c r="O257">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>1383.5</v>
+      </c>
+      <c r="Q257">
+        <v>1424.9</v>
+      </c>
+      <c r="R257">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>271</v>
       </c>
@@ -13496,8 +15769,17 @@
       <c r="O258">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>1730.2</v>
+      </c>
+      <c r="Q258">
+        <v>1943.5</v>
+      </c>
+      <c r="R258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>272</v>
       </c>
@@ -13543,8 +15825,14 @@
       <c r="O259">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q259">
+        <v>1429</v>
+      </c>
+      <c r="R259">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>273</v>
       </c>
@@ -13590,8 +15878,17 @@
       <c r="O260">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>1641.2</v>
+      </c>
+      <c r="Q260">
+        <v>1709.9</v>
+      </c>
+      <c r="R260">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>274</v>
       </c>
@@ -13637,8 +15934,17 @@
       <c r="O261">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>1599.4</v>
+      </c>
+      <c r="Q261">
+        <v>1670.1</v>
+      </c>
+      <c r="R261">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>275</v>
       </c>
@@ -13684,8 +15990,17 @@
       <c r="O262">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>1683</v>
+      </c>
+      <c r="Q262">
+        <v>1990</v>
+      </c>
+      <c r="R262">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>276</v>
       </c>
@@ -13722,14 +16037,26 @@
       <c r="L263">
         <v>0.01</v>
       </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
       <c r="N263">
         <v>0.05</v>
       </c>
       <c r="O263">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>1716.3</v>
+      </c>
+      <c r="Q263">
+        <v>1833.4</v>
+      </c>
+      <c r="R263">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>277</v>
       </c>
@@ -13775,8 +16102,17 @@
       <c r="O264">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>1600</v>
+      </c>
+      <c r="Q264">
+        <v>1650</v>
+      </c>
+      <c r="R264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>278</v>
       </c>
@@ -13822,8 +16158,17 @@
       <c r="O265">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>1263.5999999999999</v>
+      </c>
+      <c r="Q265">
+        <v>1279.5</v>
+      </c>
+      <c r="R265">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>279</v>
       </c>
@@ -13869,8 +16214,17 @@
       <c r="O266">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>1061.7</v>
+      </c>
+      <c r="Q266">
+        <v>1079</v>
+      </c>
+      <c r="R266">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>280</v>
       </c>
@@ -13916,8 +16270,17 @@
       <c r="O267">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>1169.2</v>
+      </c>
+      <c r="Q267">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="R267">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>281</v>
       </c>
@@ -13963,8 +16326,17 @@
       <c r="O268">
         <v>0.1000019268551854</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>1036.9000000000001</v>
+      </c>
+      <c r="Q268">
+        <v>1054.9000000000001</v>
+      </c>
+      <c r="R268">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>282</v>
       </c>
@@ -14010,8 +16382,17 @@
       <c r="O269">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>1150.5999999999999</v>
+      </c>
+      <c r="Q269">
+        <v>1168.5</v>
+      </c>
+      <c r="R269">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>283</v>
       </c>
@@ -14057,8 +16438,17 @@
       <c r="O270">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>1737.2</v>
+      </c>
+      <c r="Q270">
+        <v>1840.3</v>
+      </c>
+      <c r="R270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>284</v>
       </c>
@@ -14104,8 +16494,17 @@
       <c r="O271">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>1194</v>
+      </c>
+      <c r="Q271">
+        <v>1223.7</v>
+      </c>
+      <c r="R271">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>285</v>
       </c>
@@ -14151,8 +16550,17 @@
       <c r="O272">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>1390.4</v>
+      </c>
+      <c r="Q272">
+        <v>1413.8</v>
+      </c>
+      <c r="R272">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>286</v>
       </c>
@@ -14198,8 +16606,17 @@
       <c r="O273">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>1471.1</v>
+      </c>
+      <c r="Q273">
+        <v>1522.7</v>
+      </c>
+      <c r="R273">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>287</v>
       </c>
@@ -14245,8 +16662,17 @@
       <c r="O274">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P274">
+        <v>1272.5999999999999</v>
+      </c>
+      <c r="Q274">
+        <v>1318.1</v>
+      </c>
+      <c r="R274">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>288</v>
       </c>
@@ -14292,8 +16718,17 @@
       <c r="O275">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>1392.4</v>
+      </c>
+      <c r="Q275">
+        <v>1640.4</v>
+      </c>
+      <c r="R275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>289</v>
       </c>
@@ -14339,8 +16774,17 @@
       <c r="O276">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>1874.6</v>
+      </c>
+      <c r="Q276">
+        <v>1971.2</v>
+      </c>
+      <c r="R276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>290</v>
       </c>
@@ -14386,8 +16830,17 @@
       <c r="O277">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>1730.2</v>
+      </c>
+      <c r="Q277">
+        <v>1854.2</v>
+      </c>
+      <c r="R277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>291</v>
       </c>
@@ -14433,8 +16886,17 @@
       <c r="O278">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>1390.4</v>
+      </c>
+      <c r="Q278">
+        <v>1413.8</v>
+      </c>
+      <c r="R278">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>292</v>
       </c>
@@ -14480,8 +16942,17 @@
       <c r="O279">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>1230.5999999999999</v>
+      </c>
+      <c r="Q279">
+        <v>1262.2</v>
+      </c>
+      <c r="R279">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -14527,8 +16998,17 @@
       <c r="O280">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>1309.8</v>
+      </c>
+      <c r="Q280">
+        <v>1345.6</v>
+      </c>
+      <c r="R280">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>294</v>
       </c>
@@ -14574,8 +17054,17 @@
       <c r="O281">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>1674.6</v>
+      </c>
+      <c r="Q281">
+        <v>1778.3</v>
+      </c>
+      <c r="R281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>295</v>
       </c>
@@ -14621,8 +17110,17 @@
       <c r="O282">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>1243.5999999999999</v>
+      </c>
+      <c r="Q282">
+        <v>1267.0999999999999</v>
+      </c>
+      <c r="R282">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -14668,8 +17166,17 @@
       <c r="O283">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>1437.3</v>
+      </c>
+      <c r="Q283">
+        <v>1459.3</v>
+      </c>
+      <c r="R283">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -14715,8 +17222,17 @@
       <c r="O284">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>1216.8</v>
+      </c>
+      <c r="Q284">
+        <v>1249.8</v>
+      </c>
+      <c r="R284">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>298</v>
       </c>
@@ -14762,8 +17278,17 @@
       <c r="O285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>1784.5</v>
+      </c>
+      <c r="Q285">
+        <v>2129</v>
+      </c>
+      <c r="R285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -14809,8 +17334,17 @@
       <c r="O286">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>1324.3</v>
+      </c>
+      <c r="Q286">
+        <v>1351.8</v>
+      </c>
+      <c r="R286">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>300</v>
       </c>
@@ -14856,8 +17390,17 @@
       <c r="O287">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>1188.5</v>
+      </c>
+      <c r="Q287">
+        <v>1223</v>
+      </c>
+      <c r="R287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -14903,8 +17446,17 @@
       <c r="O288">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>1212.5999999999999</v>
+      </c>
+      <c r="Q288">
+        <v>1244.3</v>
+      </c>
+      <c r="R288">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>302</v>
       </c>
@@ -14950,8 +17502,17 @@
       <c r="O289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>1819</v>
+      </c>
+      <c r="Q289">
+        <v>2135.9</v>
+      </c>
+      <c r="R289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>303</v>
       </c>
@@ -14997,8 +17558,17 @@
       <c r="O290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>1340.1</v>
+      </c>
+      <c r="Q290">
+        <v>1998.1</v>
+      </c>
+      <c r="R290">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>304</v>
       </c>
@@ -15044,8 +17614,17 @@
       <c r="O291">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>1451.7</v>
+      </c>
+      <c r="Q291">
+        <v>1494.4</v>
+      </c>
+      <c r="R291">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>305</v>
       </c>
@@ -15091,8 +17670,11 @@
       <c r="O292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>1688.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>306</v>
       </c>
@@ -15138,8 +17720,17 @@
       <c r="O293">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>1254</v>
+      </c>
+      <c r="Q293">
+        <v>1286.4000000000001</v>
+      </c>
+      <c r="R293">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>307</v>
       </c>
@@ -15185,8 +17776,17 @@
       <c r="O294">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>1136.9000000000001</v>
+      </c>
+      <c r="Q294">
+        <v>1192</v>
+      </c>
+      <c r="R294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>308</v>
       </c>
@@ -15232,8 +17832,17 @@
       <c r="O295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>1681.2</v>
+      </c>
+      <c r="Q295">
+        <v>2032.6</v>
+      </c>
+      <c r="R295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>309</v>
       </c>
@@ -15279,8 +17888,17 @@
       <c r="O296">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>1167.2</v>
+      </c>
+      <c r="Q296">
+        <v>1220.9000000000001</v>
+      </c>
+      <c r="R296">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -15326,8 +17944,17 @@
       <c r="O297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>1736.3</v>
+      </c>
+      <c r="Q297">
+        <v>2039.4</v>
+      </c>
+      <c r="R297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -15373,8 +18000,17 @@
       <c r="O298">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>1723.2</v>
+      </c>
+      <c r="Q298">
+        <v>1847.2</v>
+      </c>
+      <c r="R298">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>312</v>
       </c>
@@ -15420,8 +18056,17 @@
       <c r="O299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>1688.1</v>
+      </c>
+      <c r="Q299">
+        <v>1998.1</v>
+      </c>
+      <c r="R299">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -15467,8 +18112,17 @@
       <c r="O300">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>1420</v>
+      </c>
+      <c r="Q300">
+        <v>1455.9</v>
+      </c>
+      <c r="R300">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>314</v>
       </c>
@@ -15514,8 +18168,17 @@
       <c r="O301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>1805.2</v>
+      </c>
+      <c r="Q301">
+        <v>2101.5</v>
+      </c>
+      <c r="R301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>315</v>
       </c>
@@ -15561,8 +18224,17 @@
       <c r="O302">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>1304.3</v>
+      </c>
+      <c r="Q302">
+        <v>1338.7</v>
+      </c>
+      <c r="R302">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>316</v>
       </c>
@@ -15608,8 +18280,17 @@
       <c r="O303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>1653.6</v>
+      </c>
+      <c r="Q303">
+        <v>1963.7</v>
+      </c>
+      <c r="R303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -15655,8 +18336,17 @@
       <c r="O304">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>1792.2</v>
+      </c>
+      <c r="Q304">
+        <v>1916.2</v>
+      </c>
+      <c r="R304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>318</v>
       </c>
@@ -15702,8 +18392,17 @@
       <c r="O305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>1564</v>
+      </c>
+      <c r="Q305">
+        <v>1887.9</v>
+      </c>
+      <c r="R305">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>319</v>
       </c>
@@ -15749,8 +18448,17 @@
       <c r="O306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>1021</v>
+      </c>
+      <c r="Q306">
+        <v>1128.8</v>
+      </c>
+      <c r="R306">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -15796,8 +18504,17 @@
       <c r="O307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>1681.2</v>
+      </c>
+      <c r="Q307">
+        <v>1984.3</v>
+      </c>
+      <c r="R307">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -15843,8 +18560,17 @@
       <c r="O308">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>1172</v>
+      </c>
+      <c r="Q308">
+        <v>1198.2</v>
+      </c>
+      <c r="R308">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>322</v>
       </c>
@@ -15890,8 +18616,17 @@
       <c r="O309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>1722.5</v>
+      </c>
+      <c r="Q309">
+        <v>1998.1</v>
+      </c>
+      <c r="R309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -15937,8 +18672,17 @@
       <c r="O310">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>1019</v>
+      </c>
+      <c r="Q310">
+        <v>1019</v>
+      </c>
+      <c r="R310">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -15984,8 +18728,17 @@
       <c r="O311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>1860.3</v>
+      </c>
+      <c r="Q311">
+        <v>2156.6</v>
+      </c>
+      <c r="R311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>325</v>
       </c>
@@ -16031,8 +18784,17 @@
       <c r="O312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>1812.1</v>
+      </c>
+      <c r="Q312">
+        <v>2087.6999999999998</v>
+      </c>
+      <c r="R312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>326</v>
       </c>
@@ -16077,6 +18839,12 @@
       </c>
       <c r="O313">
         <v>0</v>
+      </c>
+      <c r="P313">
+        <v>1139.7</v>
+      </c>
+      <c r="R313">
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/Comp/merged_file.xlsx
+++ b/Comp/merged_file.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/vj923_ic_ac_uk/Documents/Imperial/Y2/Steel Challenge/Challenge-2024-2025/Comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_5799B3F743668A0E62355476585DCE3A87443810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D736D9-A4C0-4166-858B-9D0497DB5776}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_5799B3F743668A0E62355476585DCE3A87443810" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1915B754-22BD-420A-8B5D-B2293B1A9FDF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1374,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="M264" sqref="M264"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
